--- a/Backbase Scenarios.xlsx
+++ b/Backbase Scenarios.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="206">
   <si>
     <t>Summary:</t>
   </si>
   <si>
+    <t>Filter by a computer name which match with one or more result</t>
+  </si>
+  <si>
+    <t>Add new computer screen displays</t>
+  </si>
+  <si>
     <t>Edit computer screen displays by selecting computer from Sample Computer home screen</t>
   </si>
   <si>
@@ -35,30 +41,24 @@
   </si>
   <si>
     <t>Pre-Conditions:</t>
+  </si>
+  <si>
+    <t>- Should exists computers already created.</t>
   </si>
   <si>
     <t>- There are computers already created.
 - Computer table displays first 10 results.</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Step Number</t>
   </si>
   <si>
     <t>Action</t>
   </si>
   <si>
-    <t>Add new computer screen displays</t>
-  </si>
-  <si>
-    <t>Filter by a computer name which match with one or more result</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>- Should exists computers already created.</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
@@ -69,6 +69,23 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Select any computer by clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Computer Name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> link.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter a computer name which has at least a match.</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Select </t>
     </r>
     <r>
@@ -86,60 +103,36 @@
       <rPr>
         <b/>
       </rPr>
+      <t>Edit computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Filter by name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
       <t>Add a computer</t>
     </r>
     <r>
       <t xml:space="preserve"> screen displays.</t>
     </r>
-  </si>
-  <si>
-    <t>Enter a computer name which has at least a match.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select any computer by clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Computer Name</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> link.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Edit computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.</t>
-    </r>
-  </si>
-  <si>
-    <t>Add new computer by only entering required fields</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Filter by name</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer info displayed on Sample Computer home screen displays on corresponding
- fields of Edit computer screen </t>
   </si>
   <si>
     <t>- Search results display on the table.
@@ -150,35 +143,14 @@
  (X: # results displayed so far; Y: # results retrived by the search)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Add a new computer </t>
-    </r>
-    <r>
-      <t>buttton.</t>
-    </r>
+    <t xml:space="preserve">Computer info displayed on Sample Computer home screen displays on corresponding
+ fields of Edit computer screen </t>
   </si>
   <si>
     <t>No computers found message displays when there is no match for a search criteria</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Add a computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.</t>
-    </r>
-  </si>
-  <si>
-    <t>Complete all the required fields displayed on the screen.</t>
+    <t>Add new computer by only entering required fields</t>
   </si>
   <si>
     <r>
@@ -193,6 +165,9 @@
     <r>
       <t xml:space="preserve"> link.</t>
     </r>
+  </si>
+  <si>
+    <t>Enter a computer name which has none match.</t>
   </si>
   <si>
     <r>
@@ -211,6 +186,9 @@
     </r>
   </si>
   <si>
+    <t>Computer info cannot be saved if name has been removed</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Select </t>
     </r>
@@ -218,24 +196,42 @@
       <rPr>
         <b/>
       </rPr>
-      <t>Create this computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <t>- System redirects user to Sample Computer home screen.
-- "Done! Computer &lt;Computer Name&gt; has been created" inline message displays.</t>
-  </si>
-  <si>
-    <t>Computer info cannot be saved if name has been removed</t>
-  </si>
-  <si>
-    <t>Cannot add a new computer without entering required fields</t>
-  </si>
-  <si>
-    <t>Enter a computer name which has none match.</t>
+      <t>Filter by name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Add a new computer </t>
+    </r>
+    <r>
+      <t>buttton.</t>
+    </r>
+  </si>
+  <si>
+    <t>"No computers found" message displays at the top of the screen.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Add a computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.</t>
+    </r>
+  </si>
+  <si>
+    <t>Complete all the required fields displayed on the screen.</t>
   </si>
   <si>
     <r>
@@ -250,6 +246,9 @@
     <r>
       <t xml:space="preserve"> link.</t>
     </r>
+  </si>
+  <si>
+    <t>Nothing to display message displays in to results table when there is no match for entered search criteria</t>
   </si>
   <si>
     <r>
@@ -289,24 +288,10 @@
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">Add a new computer </t>
-    </r>
-    <r>
-      <t>buttton.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Filter by name</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button</t>
+      <t>Create this computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button.</t>
     </r>
   </si>
   <si>
@@ -327,60 +312,39 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Add a computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.</t>
-    </r>
-  </si>
-  <si>
-    <t>- "No computers found" message displays at the top of the screen.
-- "Nothing to display" message displays, instead of the search
-results table.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Do not complete required fields displayed on the screen. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-      </rPr>
-      <t>Optional:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> fill out rest of the fields</t>
-    </r>
+    <t>- System redirects user to Sample Computer home screen.
+- "Done! Computer &lt;Computer Name&gt; has been created" inline message displays.</t>
   </si>
   <si>
     <t>Computer info updated on Edit computer screen displays in the same way on Sample 
 Computer home screen</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Filter by name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button</t>
+    </r>
+  </si>
+  <si>
+    <t>Cannot add a new computer without entering required fields</t>
+  </si>
+  <si>
+    <t>"Nothing to display" message displays, instead of the search
+results table.</t>
+  </si>
+  <si>
     <t>Number of computer results in the table match with numbers displayed in top and bottom messages.</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Create this computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Select any computer by clicking </t>
     </r>
     <r>
@@ -391,22 +355,6 @@
     </r>
     <r>
       <t xml:space="preserve"> link.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- New computer is not created.
-- User stays in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Add a computer </t>
-    </r>
-    <r>
-      <t>screen.
-- Required fields are highlighted in red (as well as text displayed next to the fields)</t>
     </r>
   </si>
   <si>
@@ -439,9 +387,6 @@
     <r>
       <t xml:space="preserve"> button</t>
     </r>
-  </si>
-  <si>
-    <t>Add new computer by filling out date fields with letters or any character</t>
   </si>
   <si>
     <t>- Computer info is saved successfully.
@@ -451,6 +396,20 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Add a new computer </t>
+    </r>
+    <r>
+      <t>buttton.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Enter Computer name edited in previous step 
 on filter field -&gt; Select </t>
     </r>
@@ -469,7 +428,15 @@
 - Updated information displays on the screen.</t>
   </si>
   <si>
-    <t>Edit computer cancellation redirects user to Sample Computer home screen</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Add a computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -479,87 +446,11 @@
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">Add a new computer </t>
-    </r>
-    <r>
-      <t>buttton.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select any computer by clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Computer Name</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> link.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Add a computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve"> Edit computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.
-- Each field of the screen displays same information displayed
- on Results screen.</t>
-    </r>
-  </si>
-  <si>
-    <t>- Complete required fields displayed on the screen. 
-- Complete date field with letters or any character.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
       <t>Filter by name</t>
     </r>
     <r>
       <t xml:space="preserve"> button</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <t>System redirects user to Sample Computer home screen.</t>
   </si>
   <si>
     <t>- Search results display on the table.
@@ -573,6 +464,32 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Do not complete required fields displayed on the screen. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+      </rPr>
+      <t>Optional:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> fill out rest of the fields</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit computer cancellation redirects user to Sample Computer home screen</t>
+  </si>
+  <si>
+    <t>Max of 10 computers display by screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Should exists computers already created.
+- # of computers created should be 10 or more. </t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Select </t>
     </r>
     <r>
@@ -598,21 +515,8 @@
     </r>
     <r>
       <t>screen.
-- Date fields are highlighted in red (as well as text displayed next to the fields)</t>
-    </r>
-  </si>
-  <si>
-    <t>Verify SQL cannot be injected by entering a sql sentence as computer name</t>
-  </si>
-  <si>
-    <t>Max of 10 computers display by screen</t>
-  </si>
-  <si>
-    <t>Add new computer by filling out date fields without date format required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Should exists computers already created.
-- # of computers created should be 10 or more. </t>
+- Required fields are highlighted in red (as well as text displayed next to the fields)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -645,8 +549,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Enter a SQL statement (Insert or update) as computer name. For example,
-INSERT INTO computer values(delete * from computers WHERE ''='', NULL, NULL, NULL) </t>
+    <t>Enter a computer name which has more than a match.</t>
   </si>
   <si>
     <r>
@@ -656,30 +559,14 @@
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">Add a new computer </t>
-    </r>
-    <r>
-      <t>buttton.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Add a computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.</t>
-    </r>
-  </si>
-  <si>
-    <t>Enter a computer name which has more than a match.</t>
-  </si>
-  <si>
-    <t>- Complete required fields displayed on the screen. 
-- Complete date field with numbers, but without the specified 
-date format (yyyy-MM-DD).</t>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>System redirects user to Sample Computer home screen.</t>
   </si>
   <si>
     <r>
@@ -689,59 +576,10 @@
       <rPr>
         <b/>
       </rPr>
-      <t>Save this computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <t>- System redirects user to Sample Computer home screen.
-- "Done! Computer &lt;Computer Name&gt; has been updated" inline message displays.
-- SQL sentence has not any impact on the system.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Create this computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
       <t>Filter by name</t>
     </r>
     <r>
       <t xml:space="preserve"> button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- New computer is not created.
-- User stays in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Add a computer </t>
-    </r>
-    <r>
-      <t>screen.
-- Date fields are highlighted in red (as well as text displayed next to the fields)</t>
     </r>
   </si>
   <si>
@@ -753,24 +591,13 @@
  (X: # results displayed so far; Y: # results retrived by the search)</t>
   </si>
   <si>
-    <t>Add new computer by completing required fields with only numbers</t>
+    <t>Add new computer by filling out date fields with letters or any character</t>
+  </si>
+  <si>
+    <t>Verify SQL cannot be injected by entering a sql sentence as computer name</t>
   </si>
   <si>
     <t>At most 10 more results display after select Next button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Add a new computer </t>
-    </r>
-    <r>
-      <t>buttton.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">- Should exists computers already created.
@@ -778,6 +605,54 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Select any computer by clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Computer Name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> link.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Add a new computer </t>
+    </r>
+    <r>
+      <t>buttton.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> Edit computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.
+- Each field of the screen displays same information displayed
+ on Results screen.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter a SQL statement (Insert or update) as computer name. For example,
+INSERT INTO computer values(delete * from computers WHERE ''='', NULL, NULL, NULL) </t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
       </rPr>
@@ -788,20 +663,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Complete required fields displayed on the screen with only numbers.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-      </rPr>
-      <t>Optional:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> fill out rest of the fields</t>
-    </r>
+    <t>Enter a computer name which has more than 10 matches match.</t>
+  </si>
+  <si>
+    <t>- Complete required fields displayed on the screen. 
+- Complete date field with letters or any character.</t>
   </si>
   <si>
     <r>
@@ -811,17 +677,16 @@
       <rPr>
         <b/>
       </rPr>
-      <t>Create this computer</t>
+      <t>Save this computer</t>
     </r>
     <r>
       <t xml:space="preserve"> button.</t>
     </r>
   </si>
   <si>
-    <t>Enter a computer name which has more than 10 matches match.</t>
-  </si>
-  <si>
-    <t>Add new computer by completing required fields with only characters (no letters)</t>
+    <t>- System redirects user to Sample Computer home screen.
+- "Done! Computer &lt;Computer Name&gt; has been updated" inline message displays.
+- SQL sentence has not any impact on the system.</t>
   </si>
   <si>
     <r>
@@ -850,21 +715,26 @@
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">Add a new computer </t>
-    </r>
-    <r>
-      <t>buttton.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Add a computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.</t>
+      <t>Create this computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- New computer is not created.
+- User stays in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Add a computer </t>
+    </r>
+    <r>
+      <t>screen.
+- Date fields are highlighted in red (as well as text displayed next to the fields)</t>
     </r>
   </si>
   <si>
@@ -879,22 +749,6 @@
     </r>
     <r>
       <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Complete required fields displayed on the screen with only characters (no letters).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-      </rPr>
-      <t>Optional:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> fill out rest of the fields</t>
     </r>
   </si>
   <si>
@@ -905,6 +759,9 @@
  (X: # results displayed so far; Y: # results retrived by the search)</t>
   </si>
   <si>
+    <t>Add new computer by filling out date fields without date format required</t>
+  </si>
+  <si>
     <t>10 previous results display after select Previous button</t>
   </si>
   <si>
@@ -915,87 +772,69 @@
       <rPr>
         <b/>
       </rPr>
+      <t xml:space="preserve">Add a new computer </t>
+    </r>
+    <r>
+      <t>buttton.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Add a computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.</t>
+    </r>
+  </si>
+  <si>
+    <t>- Complete required fields displayed on the screen. 
+- Complete date field with numbers, but without the specified 
+date format (yyyy-MM-DD).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Filter by name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Next</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
       <t>Create this computer</t>
     </r>
     <r>
       <t xml:space="preserve"> button.</t>
     </r>
-  </si>
-  <si>
-    <t>Company field displays a list of company names and any of them can be selected</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Filter by name</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Add a new computer </t>
-    </r>
-    <r>
-      <t>buttton.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Add a computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Company </t>
-    </r>
-    <r>
-      <t xml:space="preserve">field. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Next</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <t>A list of company names display.</t>
-  </si>
-  <si>
-    <t>Computer can be deleted successfully from Edit computer screen</t>
   </si>
   <si>
     <t>- At most 10 more different results displays in the table.
@@ -1005,7 +844,20 @@
  (X: # results displayed; Y: # results retrived by the search)</t>
   </si>
   <si>
-    <t>Select any company name from the list.</t>
+    <r>
+      <t xml:space="preserve">- New computer is not created.
+- User stays in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Add a computer </t>
+    </r>
+    <r>
+      <t>screen.
+- Date fields are highlighted in red (as well as text displayed next to the fields)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1020,9 +872,6 @@
     <r>
       <t xml:space="preserve"> button.</t>
     </r>
-  </si>
-  <si>
-    <t>Selected company displays on the field.</t>
   </si>
   <si>
     <t>- 10 previous results displays in the table.
@@ -1030,54 +879,13 @@
  (X: # results displayed so far; Y: # results retrived by the search)</t>
   </si>
   <si>
-    <t>Verify max limit of computer name field</t>
-  </si>
-  <si>
-    <t>User knows which is the max allowed character number for company name(for example, could exists 
-a legend notifying user which is the max limit)</t>
-  </si>
-  <si>
     <t>Previous button displays disabled being on first search results screen</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Select any computer by clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Computer Name</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> link.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve"> Edit computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.
-- Each field of the screen displays same information displayed
- on Sample Computer home screen.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Delete this computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button displays at the top right of the screen.</t>
-    </r>
+    <t>Add new computer by completing required fields with only numbers</t>
+  </si>
+  <si>
+    <t>Enter a computer name which has one or more than a match.</t>
   </si>
   <si>
     <r>
@@ -1087,71 +895,11 @@
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">Add a new computer </t>
-    </r>
-    <r>
-      <t>buttton.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Delete this compute</t>
-    </r>
-    <r>
-      <t>r button.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">"- System redirects user to Sample Computer home screen.
-- "Done! Computer has been removed" inline message displays.                       </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Add a computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.</t>
-    </r>
-  </si>
-  <si>
-    <t>Enter a computer name with max limit plus one characters in the field.</t>
-  </si>
-  <si>
-    <t>System should not allowed to enter more than the max limit allowed
-(system might not allowed to enter that number of fields or it might just
-store at most the max limit number of characters)</t>
-  </si>
-  <si>
-    <t>Enter a computer name which has one or more than a match.</t>
-  </si>
-  <si>
-    <t>Verify min limit of computer name field</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
       <t>Filter by name</t>
     </r>
     <r>
       <t xml:space="preserve"> button.</t>
     </r>
-  </si>
-  <si>
-    <t>Results number are updated correctly after a delete a computer</t>
   </si>
   <si>
     <t>- Search results display on the table.
@@ -1175,6 +923,9 @@
     </r>
   </si>
   <si>
+    <t>Next button displays disabled being on last search results screen</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1186,10 +937,20 @@
     </r>
   </si>
   <si>
-    <t>Enter a computer name of only one character.</t>
-  </si>
-  <si>
-    <t>Next button displays disabled being on last search results screen</t>
+    <r>
+      <t xml:space="preserve">Complete required fields displayed on the screen with only numbers.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+      </rPr>
+      <t>Optional:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> fill out rest of the fields</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1206,44 +967,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Select any computer by clicking </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Computer Name</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> link.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve"> Edit computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.
-- Each field of the screen displays same information displayed
- on Sample Computer home screen.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Delete this computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button displays at the top right of the screen.</t>
-    </r>
+    <t>Computer can be deleted successfully from Edit computer screen</t>
   </si>
   <si>
     <r>
@@ -1253,44 +977,6 @@
       <rPr>
         <b/>
       </rPr>
-      <t>Delete this compute</t>
-    </r>
-    <r>
-      <t>r button.</t>
-    </r>
-  </si>
-  <si>
-    <t>"- System redirects user to Sample Computer home screen.
-- "Done! Computer has been removed" inline message displays.                       
-- # computers found displays updated by minus one.
-- "Displaying 1 to X of Y-1" message displays updated as well
- (X: # results displayed so far; Y: # results retrived by the search).</t>
-  </si>
-  <si>
-    <t>Filtering by a deleted computer does not retrieve any result</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Add a new computer </t>
-    </r>
-    <r>
-      <t>buttton.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
       <t>Filter by name</t>
     </r>
     <r>
@@ -1298,15 +984,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Add a computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.</t>
-    </r>
+    <t>Add new computer by completing required fields with only characters (no letters)</t>
   </si>
   <si>
     <t>- Search results display on the table.
@@ -1344,20 +1022,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Create this computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
     <t>- Search results display on the table.
 - Next button displays disabled.
 - Previous button displays enabled.
@@ -1365,11 +1029,6 @@
  (X: # results displayed so far; Y: # results retrived by the search)</t>
   </si>
   <si>
-    <t>- System redirects user to Sample Computer home screen.
-- "Done! Computer &lt;Computer Name&gt; has been created" inline message displays.
-- SQL sentence has not any impact on the system.</t>
-  </si>
-  <si>
     <r>
       <t>-</t>
     </r>
@@ -1396,9 +1055,6 @@
     </r>
   </si>
   <si>
-    <t>Add new computer cancellation redirects user to Sample Computer home screen</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Select </t>
     </r>
@@ -1406,6 +1062,20 @@
       <rPr>
         <b/>
       </rPr>
+      <t xml:space="preserve">Add a new computer </t>
+    </r>
+    <r>
+      <t>buttton.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
       <t>Delete this compute</t>
     </r>
     <r>
@@ -1413,69 +1083,55 @@
     </r>
   </si>
   <si>
-    <t>Computer is deleted successfully.</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Add a computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"- System redirects user to Sample Computer home screen.
+- "Done! Computer has been removed" inline message displays.                       </t>
   </si>
   <si>
     <t>Search results display sorted by Computer name column ascendant</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Enter Computed name deleted -&gt; Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Filter by name</t>
+      <t xml:space="preserve">Complete required fields displayed on the screen with only characters (no letters).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+      </rPr>
+      <t>Optional:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> fill out rest of the fields</t>
+    </r>
+  </si>
+  <si>
+    <t>Results number are updated correctly after a delete a computer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Create this computer</t>
     </r>
     <r>
       <t xml:space="preserve"> button.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">Add a new computer </t>
-    </r>
-    <r>
-      <t>buttton.</t>
-    </r>
-  </si>
-  <si>
-    <t>"Nothing to display" message displays in the search results table.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Add a computer</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> screen displays.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <t>Entered info does not persists on the fields after cancel and go back to Add new computer screen</t>
   </si>
   <si>
     <r>
@@ -1501,6 +1157,62 @@
  (X: # results displayed so far; Y: # results retrived by the search)</t>
   </si>
   <si>
+    <t>Company field displays a list of company names and any of them can be selected</t>
+  </si>
+  <si>
+    <t>Select computer name column header</t>
+  </si>
+  <si>
+    <t>Results display sorted by selected column ascendant.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select any computer by clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Computer Name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> link.</t>
+    </r>
+  </si>
+  <si>
+    <t>Search results display sorted by Computer name column descendant</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> Edit computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.
+- Each field of the screen displays same information displayed
+ on Sample Computer home screen.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Delete this computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button displays at the top right of the screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>- Should exists computers already created.
+- Results have been sorted by computer name ascendant.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Select </t>
     </r>
@@ -1508,6 +1220,30 @@
       <rPr>
         <b/>
       </rPr>
+      <t>Delete this compute</t>
+    </r>
+    <r>
+      <t>r button.</t>
+    </r>
+  </si>
+  <si>
+    <t>"- System redirects user to Sample Computer home screen.
+- "Done! Computer has been removed" inline message displays.                       
+- # computers found displays updated by minus one.
+- "Displaying 1 to X of Y-1" message displays updated as well
+ (X: # results displayed so far; Y: # results retrived by the search).</t>
+  </si>
+  <si>
+    <t>Results display sorted by selected column descendant.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
       <t xml:space="preserve">Add a new computer </t>
     </r>
     <r>
@@ -1515,7 +1251,392 @@
     </r>
   </si>
   <si>
-    <t>Select computer name column header</t>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Add a computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.</t>
+    </r>
+  </si>
+  <si>
+    <t>Filtering by a deleted computer does not retrieve any result</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Company </t>
+    </r>
+    <r>
+      <t xml:space="preserve">field. </t>
+    </r>
+  </si>
+  <si>
+    <t>Search results display sorted by Introduced column descendant</t>
+  </si>
+  <si>
+    <t>A list of company names display.</t>
+  </si>
+  <si>
+    <t>- Should exists computers already created.
+- Results have been sorted by computer name descendant.</t>
+  </si>
+  <si>
+    <t>Select any company name from the list.</t>
+  </si>
+  <si>
+    <t>Selected company displays on the field.</t>
+  </si>
+  <si>
+    <t>Select Introduced column header</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select any computer by clicking </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Computer Name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> link.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> Edit computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.
+- Each field of the screen displays same information displayed
+ on Sample Computer home screen.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Delete this computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button displays at the top right of the screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Search results display sorted by Introduced column ascendant</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Delete this compute</t>
+    </r>
+    <r>
+      <t>r button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify max limit of computer name field</t>
+  </si>
+  <si>
+    <t>- Should exists computers already created.
+- Results have been sorted by Introduced column descendant.</t>
+  </si>
+  <si>
+    <t>Computer is deleted successfully.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter Computed name deleted -&gt; Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Filter by name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>User knows which is the max allowed character number for company name(for example, could exists 
+a legend notifying user which is the max limit)</t>
+  </si>
+  <si>
+    <t>"Nothing to display" message displays in the search results table.</t>
+  </si>
+  <si>
+    <t>Search results display sorted by Discontinued column descendant</t>
+  </si>
+  <si>
+    <t>- Should exists computers already created.
+- Results have been sorted by Introduced column ascendant.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Add a new computer </t>
+    </r>
+    <r>
+      <t>buttton.</t>
+    </r>
+  </si>
+  <si>
+    <t>Select Discontinued column header</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Add a computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter a computer name with max limit plus one characters in the field.</t>
+  </si>
+  <si>
+    <t>System should not allowed to enter more than the max limit allowed
+(system might not allowed to enter that number of fields or it might just
+store at most the max limit number of characters)</t>
+  </si>
+  <si>
+    <t>Search results display sorted by Discontinued column ascendant</t>
+  </si>
+  <si>
+    <t>- Should exists computers already created.
+- Results have been sorted by Discontinued column descendant.</t>
+  </si>
+  <si>
+    <t>Verify min limit of computer name field</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Add a new computer </t>
+    </r>
+    <r>
+      <t>buttton.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Add a computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter a computer name of only one character.</t>
+  </si>
+  <si>
+    <t>Search results display sorted by Company column descendant</t>
+  </si>
+  <si>
+    <t>- Should exists computers already created.
+- Results have been sorted by Discontinued column ascendant.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Create this computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Select Company column header</t>
+  </si>
+  <si>
+    <t>Search results display sorted by Company column ascendant</t>
+  </si>
+  <si>
+    <t>- Should exists computers already created.
+- Results have been sorted by Company column descendant.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Add a new computer </t>
+    </r>
+    <r>
+      <t>buttton.</t>
+    </r>
+  </si>
+  <si>
+    <t>Filter by no entering nothing as search criteria retrieves all available results</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Add a computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Create this computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>- System redirects user to Sample Computer home screen.
+- "Done! Computer &lt;Computer Name&gt; has been created" inline message displays.
+- SQL sentence has not any impact on the system.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter a search crietria which has not match -&gt; Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Filter by name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> 
+button.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Nothing to display" message displays on search results table.</t>
+  </si>
+  <si>
+    <t>Add new computer cancellation redirects user to Sample Computer home screen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Remove search criteria entered -&gt; Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Filter by name</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>All available computers display on search results table.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Add a new computer </t>
+    </r>
+    <r>
+      <t>buttton.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Add a computer</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> screen displays.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <t>Entered info does not persists on the fields after cancel and go back to Add new computer screen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t xml:space="preserve">Add a new computer </t>
+    </r>
+    <r>
+      <t>buttton.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1545,9 +1666,6 @@
     </r>
   </si>
   <si>
-    <t>Results display sorted by selected column ascendant.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Select </t>
     </r>
@@ -1591,19 +1709,9 @@
     </r>
   </si>
   <si>
-    <t>Search results display sorted by Computer name column descendant</t>
-  </si>
-  <si>
-    <t>- Should exists computers already created.
-- Results have been sorted by computer name ascendant.</t>
-  </si>
-  <si>
     <t>Information entered for a new computer displays on Sample Computer home screen.</t>
   </si>
   <si>
-    <t>Results display sorted by selected column descendant.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Select </t>
     </r>
@@ -1627,9 +1735,6 @@
     <r>
       <t xml:space="preserve"> screen displays.</t>
     </r>
-  </si>
-  <si>
-    <t>Search results display sorted by Introduced column descendant</t>
   </si>
   <si>
     <r>
@@ -1645,10 +1750,6 @@
     <r>
       <t xml:space="preserve"> fill out rest of the fields</t>
     </r>
-  </si>
-  <si>
-    <t>- Should exists computers already created.
-- Results have been sorted by computer name descendant.</t>
   </si>
   <si>
     <r>
@@ -1683,88 +1784,6 @@
     <t>- Computer created in previous step is retrieved as result.
 - Information entered during creation displays correctly on Sample Computer 
 home screen.</t>
-  </si>
-  <si>
-    <t>Select Introduced column header</t>
-  </si>
-  <si>
-    <t>Search results display sorted by Introduced column ascendant</t>
-  </si>
-  <si>
-    <t>- Should exists computers already created.
-- Results have been sorted by Introduced column descendant.</t>
-  </si>
-  <si>
-    <t>Search results display sorted by Discontinued column descendant</t>
-  </si>
-  <si>
-    <t>- Should exists computers already created.
-- Results have been sorted by Introduced column ascendant.</t>
-  </si>
-  <si>
-    <t>Select Discontinued column header</t>
-  </si>
-  <si>
-    <t>Search results display sorted by Discontinued column ascendant</t>
-  </si>
-  <si>
-    <t>- Should exists computers already created.
-- Results have been sorted by Discontinued column descendant.</t>
-  </si>
-  <si>
-    <t>Search results display sorted by Company column descendant</t>
-  </si>
-  <si>
-    <t>- Should exists computers already created.
-- Results have been sorted by Discontinued column ascendant.</t>
-  </si>
-  <si>
-    <t>Select Company column header</t>
-  </si>
-  <si>
-    <t>Search results display sorted by Company column ascendant</t>
-  </si>
-  <si>
-    <t>- Should exists computers already created.
-- Results have been sorted by Company column descendant.</t>
-  </si>
-  <si>
-    <t>Filter by no entering nothing as search criteria retrieves all available results</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enter a search crietria which has not match -&gt; Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Filter by name</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> 
-button.</t>
-    </r>
-  </si>
-  <si>
-    <t>"Nothing to display" message displays on search results table.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remove search criteria entered -&gt; Select </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>Filter by name</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <t>All available computers display on search results table.</t>
   </si>
 </sst>
 </file>
@@ -1916,31 +1935,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1948,10 +1967,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1985,7 +2004,7 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2000,13 +2019,13 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -2028,20 +2047,20 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
@@ -2049,10 +2068,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2060,10 +2079,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2097,7 +2116,7 @@
         <v>2.0</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2112,13 +2131,13 @@
         <v>3.0</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="10" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2140,31 +2159,31 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2172,10 +2191,10 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2209,7 +2228,7 @@
         <v>2.0</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2224,13 +2243,13 @@
         <v>3.0</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -2252,20 +2271,20 @@
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>5</v>
@@ -2273,10 +2292,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2284,10 +2303,10 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2321,7 +2340,7 @@
         <v>2.0</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2336,13 +2355,13 @@
         <v>3.0</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="8"/>
       <c r="F53" s="10" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -2364,12 +2383,12 @@
         <v>0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>5</v>
@@ -2377,18 +2396,18 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -2396,10 +2415,10 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2433,7 +2452,7 @@
         <v>2.0</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2448,93 +2467,93 @@
         <v>3.0</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="8"/>
       <c r="F67" s="10" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="8"/>
     </row>
     <row r="68">
-      <c r="A68" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="F68" s="10"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
+    <row r="71">
+      <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>102</v>
+      <c r="B71" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="A77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
+      <c r="A78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>9</v>
+      <c r="A79" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="6" t="s">
-        <v>14</v>
+      <c r="F79" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -2542,162 +2561,160 @@
     </row>
     <row r="80">
       <c r="A80" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F80" s="10"/>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81">
       <c r="A81" s="9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="10"/>
+      <c r="F81" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="8"/>
     </row>
     <row r="82">
       <c r="A82" s="9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="8"/>
       <c r="F82" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="8"/>
     </row>
     <row r="83">
-      <c r="A83" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="F83" s="10"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
       <c r="I83" s="8"/>
     </row>
-    <row r="84">
-      <c r="A84" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="8"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="8"/>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="8"/>
     </row>
     <row r="94">
-      <c r="A94" s="2"/>
+      <c r="A94" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="8"/>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>9</v>
+      <c r="A95" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="F95" s="10"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
       <c r="I95" s="8"/>
     </row>
     <row r="96">
       <c r="A96" s="9">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="8"/>
       <c r="F96" s="10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
@@ -2705,31 +2722,33 @@
     </row>
     <row r="97">
       <c r="A97" s="9">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="10"/>
+      <c r="F97" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
       <c r="I97" s="8"/>
     </row>
     <row r="98">
       <c r="A98" s="9">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="8"/>
       <c r="F98" s="10" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -2751,31 +2770,31 @@
         <v>0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
@@ -2783,10 +2802,10 @@
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2820,7 +2839,7 @@
         <v>2.0</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2835,93 +2854,93 @@
         <v>3.0</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="8"/>
       <c r="F112" s="10" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="8"/>
     </row>
     <row r="113">
-      <c r="A113" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>147</v>
-      </c>
+      <c r="A113" s="9"/>
+      <c r="B113" s="10"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="8"/>
-      <c r="F113" s="10" t="s">
-        <v>150</v>
-      </c>
+      <c r="F113" s="10"/>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
       <c r="I113" s="8"/>
     </row>
-    <row r="114">
-      <c r="A114" s="9"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="8"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
+    <row r="116">
+      <c r="A116" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>156</v>
+      <c r="B116" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B122" s="4" t="s">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="8"/>
     </row>
     <row r="124">
-      <c r="A124" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>9</v>
+      <c r="A124" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="8"/>
-      <c r="F124" s="6" t="s">
-        <v>14</v>
+      <c r="F124" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
@@ -2929,128 +2948,128 @@
     </row>
     <row r="125">
       <c r="A125" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="8"/>
-      <c r="F125" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="F125" s="10"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="8"/>
     </row>
     <row r="126">
       <c r="A126" s="9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="8"/>
-      <c r="F126" s="10"/>
+      <c r="F126" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="8"/>
     </row>
     <row r="127">
       <c r="A127" s="9">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="8"/>
       <c r="F127" s="10" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
       <c r="I127" s="8"/>
     </row>
     <row r="128">
-      <c r="A128" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>166</v>
-      </c>
+      <c r="A128" s="9"/>
+      <c r="B128" s="10"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="8"/>
-      <c r="F128" s="10" t="s">
-        <v>169</v>
-      </c>
+      <c r="F128" s="10"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
       <c r="I128" s="8"/>
     </row>
-    <row r="129">
-      <c r="A129" s="9"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="8"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="s">
+    <row r="131">
+      <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>173</v>
+      <c r="B131" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>174</v>
-      </c>
+      <c r="A137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="2"/>
+      <c r="A138" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="8"/>
     </row>
     <row r="139">
-      <c r="A139" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>9</v>
+      <c r="A139" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="8"/>
-      <c r="F139" s="6" t="s">
-        <v>14</v>
+      <c r="F139" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
@@ -3058,53 +3077,77 @@
     </row>
     <row r="140">
       <c r="A140" s="9">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="8"/>
-      <c r="F140" s="10" t="s">
-        <v>176</v>
-      </c>
+      <c r="F140" s="10"/>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="8"/>
     </row>
     <row r="141">
-      <c r="A141" s="9"/>
-      <c r="B141" s="10"/>
+      <c r="A141" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="8"/>
-      <c r="F141" s="10"/>
+      <c r="F141" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
       <c r="I141" s="8"/>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>179</v>
-      </c>
+    <row r="142">
+      <c r="A142" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="8"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="9"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="8"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3112,539 +3155,513 @@
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2"/>
+      <c r="B149" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="8"/>
+      <c r="B151" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="8"/>
+      <c r="A152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="9"/>
-      <c r="B153" s="10"/>
+      <c r="A153" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="8"/>
-      <c r="F153" s="10"/>
+      <c r="F153" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
       <c r="I153" s="8"/>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>186</v>
-      </c>
+    <row r="154">
+      <c r="A154" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="8"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="9"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="8"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>5</v>
+      <c r="B160" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2"/>
+      <c r="B161" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="8"/>
+      <c r="B163" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="164">
-      <c r="A164" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="8"/>
+      <c r="A164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="9"/>
-      <c r="B165" s="10"/>
+      <c r="A165" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="8"/>
-      <c r="F165" s="10"/>
+      <c r="F165" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
       <c r="I165" s="8"/>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>188</v>
-      </c>
+    <row r="166">
+      <c r="A166" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="8"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="9"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="8"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>5</v>
+      <c r="B172" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B173" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2"/>
+      <c r="B173" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="8"/>
+      <c r="B175" s="4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="8"/>
+      <c r="A176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="9"/>
-      <c r="B177" s="10"/>
+      <c r="A177" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="8"/>
-      <c r="F177" s="10"/>
+      <c r="F177" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
       <c r="I177" s="8"/>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>191</v>
-      </c>
+    <row r="178">
+      <c r="A178" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="8"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="9"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="8"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>5</v>
+      <c r="B184" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2"/>
+      <c r="B185" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="187">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-      <c r="I187" s="8"/>
+      <c r="B187" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="188">
-      <c r="A188" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B188" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
-      <c r="I188" s="8"/>
+      <c r="A188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="9"/>
-      <c r="B189" s="10"/>
+      <c r="A189" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="8"/>
-      <c r="F189" s="10"/>
+      <c r="F189" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
       <c r="I189" s="8"/>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>193</v>
-      </c>
+    <row r="190">
+      <c r="A190" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="8"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="9"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="8"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>5</v>
+      <c r="B196" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B197" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2"/>
+      <c r="B197" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="199">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7"/>
-      <c r="I199" s="8"/>
+      <c r="B199" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="200">
-      <c r="A200" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B200" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="8"/>
+      <c r="A200" s="2"/>
     </row>
     <row r="201">
-      <c r="A201" s="9"/>
-      <c r="B201" s="10"/>
+      <c r="A201" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="8"/>
-      <c r="F201" s="10"/>
+      <c r="F201" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
       <c r="I201" s="8"/>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>196</v>
-      </c>
+    <row r="202">
+      <c r="A202" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+      <c r="I202" s="8"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="9"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="8"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>5</v>
+      <c r="B208" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2"/>
+      <c r="B209" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G211" s="7"/>
-      <c r="H211" s="7"/>
-      <c r="I211" s="8"/>
+      <c r="B211" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C212" s="7"/>
-      <c r="D212" s="7"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7"/>
-      <c r="I212" s="8"/>
+      <c r="A212" s="2"/>
     </row>
     <row r="213">
-      <c r="A213" s="9"/>
-      <c r="B213" s="10"/>
+      <c r="A213" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="8"/>
-      <c r="F213" s="10"/>
+      <c r="F213" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
       <c r="I213" s="8"/>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>198</v>
-      </c>
+    <row r="214">
+      <c r="A214" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+      <c r="I214" s="8"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="9"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
+      <c r="I215" s="8"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>5</v>
+      <c r="B220" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C223" s="7"/>
-      <c r="D223" s="7"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7"/>
-      <c r="I223" s="8"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C224" s="7"/>
-      <c r="D224" s="7"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
-      <c r="I224" s="8"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B225" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="8"/>
-      <c r="F225" s="10" t="s">
-        <v>200</v>
+      <c r="F225" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
@@ -3652,16 +3669,16 @@
     </row>
     <row r="226">
       <c r="A226" s="9">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="8"/>
       <c r="F226" s="10" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
@@ -3678,89 +3695,253 @@
       <c r="H227" s="7"/>
       <c r="I227" s="8"/>
     </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="8"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7"/>
+      <c r="I238" s="8"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G239" s="7"/>
+      <c r="H239" s="7"/>
+      <c r="I239" s="8"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C240" s="7"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G240" s="7"/>
+      <c r="H240" s="7"/>
+      <c r="I240" s="8"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="9"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="186">
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B144:G144"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B188:E188"/>
+  <mergeCells count="198">
+    <mergeCell ref="B202:E202"/>
+    <mergeCell ref="B201:E201"/>
+    <mergeCell ref="F202:I202"/>
+    <mergeCell ref="F201:I201"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B190:E190"/>
     <mergeCell ref="B189:E189"/>
-    <mergeCell ref="B185:G185"/>
-    <mergeCell ref="B187:E187"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B164:E164"/>
+    <mergeCell ref="B191:E191"/>
+    <mergeCell ref="B182:G182"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="F190:I190"/>
+    <mergeCell ref="F191:I191"/>
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="F178:I178"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="F177:I177"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="F139:I139"/>
+    <mergeCell ref="F140:I140"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F165:I165"/>
+    <mergeCell ref="F166:I166"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="F154:I154"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="F167:I167"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B166:E166"/>
     <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="B124:E124"/>
     <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B204:G204"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B180:G180"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B197:G197"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="F200:I200"/>
-    <mergeCell ref="F201:I201"/>
-    <mergeCell ref="F199:I199"/>
-    <mergeCell ref="B201:E201"/>
-    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="F126:I126"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F214:I214"/>
+    <mergeCell ref="F213:I213"/>
+    <mergeCell ref="B203:E203"/>
+    <mergeCell ref="B218:G218"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B211:G211"/>
     <mergeCell ref="B213:E213"/>
-    <mergeCell ref="B209:G209"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="F212:I212"/>
-    <mergeCell ref="F211:I211"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="F128:I128"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B156:G156"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="F164:I164"/>
-    <mergeCell ref="F165:I165"/>
-    <mergeCell ref="F176:I176"/>
-    <mergeCell ref="F177:I177"/>
-    <mergeCell ref="F175:I175"/>
-    <mergeCell ref="F188:I188"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="F189:I189"/>
-    <mergeCell ref="F213:I213"/>
-    <mergeCell ref="F225:I225"/>
-    <mergeCell ref="F226:I226"/>
-    <mergeCell ref="F224:I224"/>
-    <mergeCell ref="F223:I223"/>
+    <mergeCell ref="F215:I215"/>
+    <mergeCell ref="F203:I203"/>
     <mergeCell ref="F227:I227"/>
-    <mergeCell ref="B216:G216"/>
-    <mergeCell ref="B221:G221"/>
-    <mergeCell ref="B224:E224"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="F239:I239"/>
+    <mergeCell ref="F240:I240"/>
+    <mergeCell ref="F238:I238"/>
+    <mergeCell ref="F237:I237"/>
+    <mergeCell ref="F241:I241"/>
+    <mergeCell ref="B230:G230"/>
+    <mergeCell ref="B235:G235"/>
+    <mergeCell ref="B238:E238"/>
+    <mergeCell ref="B237:E237"/>
+    <mergeCell ref="B239:E239"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="B241:E241"/>
+    <mergeCell ref="B215:E215"/>
     <mergeCell ref="B226:E226"/>
     <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B223:G223"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="F226:I226"/>
+    <mergeCell ref="F225:I225"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="F143:I143"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="F128:I128"/>
+    <mergeCell ref="F127:I127"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="B1:G1"/>
@@ -3768,104 +3949,66 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="F109:I109"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="F93:I93"/>
+    <mergeCell ref="F94:I94"/>
+    <mergeCell ref="F97:I97"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:I52"/>
     <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="F38:I38"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="F109:I109"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F95:I95"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F127:I127"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="F151:I151"/>
-    <mergeCell ref="F152:I152"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="F126:I126"/>
-    <mergeCell ref="F139:I139"/>
-    <mergeCell ref="F140:I140"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="F163:I163"/>
-    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="B38:E38"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3889,31 +4032,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -3921,10 +4064,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3958,13 +4101,13 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3986,31 +4129,31 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -4018,10 +4161,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4055,13 +4198,13 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
       <c r="F23" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -4072,7 +4215,7 @@
         <v>3.0</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4087,13 +4230,13 @@
         <v>4.0</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -4115,31 +4258,31 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -4147,10 +4290,10 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -4184,13 +4327,13 @@
         <v>2.0</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -4201,7 +4344,7 @@
         <v>3.0</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -4216,13 +4359,13 @@
         <v>4.0</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -4244,31 +4387,31 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -4276,10 +4419,10 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -4313,13 +4456,13 @@
         <v>2.0</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="8"/>
       <c r="F53" s="10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -4330,7 +4473,7 @@
         <v>3.0</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -4345,13 +4488,13 @@
         <v>4.0</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="8"/>
       <c r="F55" s="10" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -4373,31 +4516,31 @@
         <v>0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
@@ -4405,10 +4548,10 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -4442,13 +4585,13 @@
         <v>2.0</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="8"/>
       <c r="F68" s="10" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
@@ -4459,7 +4602,7 @@
         <v>3.0</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -4474,13 +4617,13 @@
         <v>4.0</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="8"/>
       <c r="F70" s="10" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -4502,31 +4645,31 @@
         <v>0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -4534,10 +4677,10 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -4571,13 +4714,13 @@
         <v>2.0</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="8"/>
       <c r="F83" s="10" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
@@ -4588,7 +4731,7 @@
         <v>3.0</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -4603,13 +4746,13 @@
         <v>4.0</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="8"/>
       <c r="F85" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
@@ -4631,31 +4774,31 @@
         <v>0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -4663,10 +4806,10 @@
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -4700,13 +4843,13 @@
         <v>2.0</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="8"/>
       <c r="F98" s="10" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -4717,7 +4860,7 @@
         <v>3.0</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -4732,13 +4875,13 @@
         <v>4.0</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="8"/>
       <c r="F100" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
@@ -4760,31 +4903,31 @@
         <v>0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -4792,10 +4935,10 @@
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -4829,13 +4972,13 @@
         <v>2.0</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="8"/>
       <c r="F112" s="10" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -4846,13 +4989,13 @@
         <v>3.0</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="8"/>
       <c r="F113" s="10" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -4863,13 +5006,13 @@
         <v>4.0</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="8"/>
       <c r="F114" s="10" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -4891,31 +5034,31 @@
         <v>0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
@@ -4923,10 +5066,10 @@
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4960,13 +5103,13 @@
         <v>2.0</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="8"/>
       <c r="F127" s="10" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
@@ -4977,13 +5120,13 @@
         <v>3.0</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="8"/>
       <c r="F128" s="10" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
@@ -5005,31 +5148,31 @@
         <v>0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137">
@@ -5037,10 +5180,10 @@
     </row>
     <row r="138">
       <c r="A138" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -5074,13 +5217,13 @@
         <v>2.0</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="8"/>
       <c r="F140" s="10" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
@@ -5091,13 +5234,13 @@
         <v>3.0</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="8"/>
       <c r="F141" s="10" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
@@ -5108,13 +5251,13 @@
         <v>4.0</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="8"/>
       <c r="F142" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
@@ -5136,31 +5279,31 @@
         <v>0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152">
@@ -5168,10 +5311,10 @@
     </row>
     <row r="153">
       <c r="A153" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
@@ -5205,13 +5348,13 @@
         <v>2.0</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="8"/>
       <c r="F155" s="10" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
@@ -5222,7 +5365,7 @@
         <v>3.0</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
@@ -5237,13 +5380,13 @@
         <v>4.0</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="8"/>
       <c r="F157" s="10" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
@@ -5265,31 +5408,31 @@
         <v>0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166">
@@ -5297,10 +5440,10 @@
     </row>
     <row r="167">
       <c r="A167" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
@@ -5334,13 +5477,13 @@
         <v>2.0</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="8"/>
       <c r="F169" s="10" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
@@ -5351,13 +5494,13 @@
         <v>3.0</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="8"/>
       <c r="F170" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
@@ -5379,31 +5522,31 @@
         <v>0</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180">
@@ -5411,10 +5554,10 @@
     </row>
     <row r="181">
       <c r="A181" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
@@ -5448,13 +5591,13 @@
         <v>2.0</v>
       </c>
       <c r="B183" s="10" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="8"/>
       <c r="F183" s="10" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
@@ -5465,7 +5608,7 @@
         <v>3.0</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
@@ -5480,13 +5623,13 @@
         <v>4.0</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="8"/>
       <c r="F185" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
@@ -5497,13 +5640,13 @@
         <v>5.0</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="8"/>
       <c r="F186" s="10" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
@@ -5525,31 +5668,31 @@
         <v>0</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196">
@@ -5557,10 +5700,10 @@
     </row>
     <row r="197">
       <c r="A197" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
@@ -5594,13 +5737,13 @@
         <v>2.0</v>
       </c>
       <c r="B199" s="10" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="8"/>
       <c r="F199" s="10" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
@@ -5611,7 +5754,7 @@
         <v>3.0</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
@@ -5626,13 +5769,13 @@
         <v>4.0</v>
       </c>
       <c r="B201" s="10" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="8"/>
       <c r="F201" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
@@ -5643,13 +5786,13 @@
         <v>5.0</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="8"/>
       <c r="F202" s="10" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
@@ -5668,153 +5811,87 @@
     </row>
   </sheetData>
   <mergeCells count="192">
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B165:G165"/>
+    <mergeCell ref="B167:E167"/>
     <mergeCell ref="B156:E156"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="F168:I168"/>
-    <mergeCell ref="F171:I171"/>
     <mergeCell ref="B171:E171"/>
     <mergeCell ref="B155:E155"/>
     <mergeCell ref="F170:I170"/>
     <mergeCell ref="B174:G174"/>
+    <mergeCell ref="F158:I158"/>
+    <mergeCell ref="F169:I169"/>
+    <mergeCell ref="B157:E157"/>
     <mergeCell ref="F157:I157"/>
-    <mergeCell ref="F158:I158"/>
-    <mergeCell ref="F184:I184"/>
-    <mergeCell ref="F181:I181"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="F169:I169"/>
+    <mergeCell ref="F168:I168"/>
     <mergeCell ref="F167:I167"/>
     <mergeCell ref="B158:E158"/>
     <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="F154:I154"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B118:G118"/>
     <mergeCell ref="F155:I155"/>
     <mergeCell ref="F156:I156"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="F125:I125"/>
-    <mergeCell ref="F126:I126"/>
+    <mergeCell ref="B139:E139"/>
     <mergeCell ref="F139:I139"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="F185:I185"/>
-    <mergeCell ref="F197:I197"/>
-    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="F141:I141"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="F143:I143"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="F153:I153"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="B169:E169"/>
     <mergeCell ref="F198:I198"/>
     <mergeCell ref="F199:I199"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B197:E197"/>
     <mergeCell ref="F201:I201"/>
     <mergeCell ref="F202:I202"/>
     <mergeCell ref="F203:I203"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B199:E199"/>
     <mergeCell ref="B201:E201"/>
     <mergeCell ref="B200:E200"/>
     <mergeCell ref="B202:E202"/>
     <mergeCell ref="B203:E203"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="F184:I184"/>
+    <mergeCell ref="F181:I181"/>
+    <mergeCell ref="F182:I182"/>
+    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="F197:I197"/>
+    <mergeCell ref="F200:I200"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B183:E183"/>
+    <mergeCell ref="B186:E186"/>
+    <mergeCell ref="B185:E185"/>
     <mergeCell ref="F186:I186"/>
     <mergeCell ref="F187:I187"/>
     <mergeCell ref="B179:G179"/>
     <mergeCell ref="F183:I183"/>
     <mergeCell ref="B190:G190"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="B181:E181"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="F125:I125"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="F138:I138"/>
     <mergeCell ref="F140:I140"/>
-    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B142:E142"/>
     <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B154:E154"/>
     <mergeCell ref="B153:E153"/>
     <mergeCell ref="B126:E126"/>
     <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B125:E125"/>
     <mergeCell ref="B129:E129"/>
     <mergeCell ref="B128:E128"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B131:G131"/>
     <mergeCell ref="F127:I127"/>
     <mergeCell ref="F128:I128"/>
-    <mergeCell ref="F129:I129"/>
-    <mergeCell ref="F141:I141"/>
-    <mergeCell ref="F142:I142"/>
-    <mergeCell ref="F143:I143"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="B146:G146"/>
-    <mergeCell ref="F153:I153"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B86:E86"/>
     <mergeCell ref="B89:G89"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="B99:E99"/>
     <mergeCell ref="B94:G94"/>
     <mergeCell ref="B96:E96"/>
     <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B86:E86"/>
     <mergeCell ref="F86:I86"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="F112:I112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="F101:I101"/>
     <mergeCell ref="F96:I96"/>
     <mergeCell ref="F97:I97"/>
     <mergeCell ref="F98:I98"/>
@@ -5823,43 +5900,109 @@
     <mergeCell ref="B82:E82"/>
     <mergeCell ref="F81:I81"/>
     <mergeCell ref="F82:I82"/>
-    <mergeCell ref="B186:E186"/>
-    <mergeCell ref="B187:E187"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="B183:E183"/>
-    <mergeCell ref="B181:E181"/>
-    <mergeCell ref="B185:E185"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="F112:I112"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B44:G44"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F8:I8"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="B36:E36"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="B138:E138"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="F154:I154"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="F126:I126"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F129:I129"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="F101:I101"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B54:E54"/>
     <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F66:I66"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5880,31 +6023,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -5912,10 +6055,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -5949,13 +6092,13 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -5982,26 +6125,26 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -6009,10 +6152,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6046,13 +6189,13 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="8"/>
       <c r="F23" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -6074,31 +6217,31 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -6106,10 +6249,10 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -6143,7 +6286,7 @@
         <v>2.0</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -6166,7 +6309,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="8"/>
       <c r="F37" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -6188,31 +6331,31 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -6220,10 +6363,10 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -6257,13 +6400,13 @@
         <v>2.0</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="8"/>
       <c r="F50" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -6274,13 +6417,13 @@
         <v>3.0</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="8"/>
       <c r="F51" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -6291,13 +6434,13 @@
         <v>4.0</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="8"/>
       <c r="F52" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -6319,31 +6462,31 @@
         <v>0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -6351,10 +6494,10 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -6388,13 +6531,13 @@
         <v>2.0</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="8"/>
       <c r="F65" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
@@ -6405,13 +6548,13 @@
         <v>3.0</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="8"/>
       <c r="F66" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -6433,31 +6576,31 @@
         <v>0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -6465,10 +6608,10 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -6502,13 +6645,13 @@
         <v>2.0</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="8"/>
       <c r="F79" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -6519,7 +6662,7 @@
         <v>3.0</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -6534,13 +6677,13 @@
         <v>4.0</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="8"/>
       <c r="F81" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
@@ -6559,78 +6702,78 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F78:I78"/>
-    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="F67:I67"/>
     <mergeCell ref="F52:I52"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="F53:I53"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F24:I24"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B41:G41"/>
     <mergeCell ref="F51:I51"/>
     <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="B80:E80"/>
     <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B70:G70"/>
     <mergeCell ref="B82:E82"/>
+    <mergeCell ref="F81:I81"/>
     <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B41:G41"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6651,31 +6794,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -6683,10 +6826,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6720,13 +6863,13 @@
         <v>2.0</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -6737,13 +6880,13 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -6765,31 +6908,31 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -6797,10 +6940,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6834,13 +6977,13 @@
         <v>2.0</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
       <c r="F24" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -6851,13 +6994,13 @@
         <v>3.0</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8"/>
       <c r="F25" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -6884,26 +7027,26 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +7054,10 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -6948,13 +7091,13 @@
         <v>2.0</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -6965,13 +7108,13 @@
         <v>3.0</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -7007,44 +7150,44 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="B29:G29"/>
     <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F38:I38"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
